--- a/Document/빌드 일정 및 목표/일정(강동민).xlsx
+++ b/Document/빌드 일정 및 목표/일정(강동민).xlsx
@@ -9,14 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="일정" sheetId="1" r:id="rId1"/>
-    <sheet name="5월27~6월2일(1주 목표)" sheetId="2" r:id="rId2"/>
-    <sheet name="6월3~6월9일(2주 목표)" sheetId="3" r:id="rId3"/>
-    <sheet name="6월10~6월16일(3주 목표)" sheetId="4" r:id="rId4"/>
-    <sheet name="6월17~6월23일(4주 목표)" sheetId="5" r:id="rId5"/>
+    <sheet name="개요" sheetId="6" r:id="rId1"/>
+    <sheet name="일정" sheetId="1" r:id="rId2"/>
+    <sheet name="세부 일정" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="276">
   <si>
     <t>5월</t>
   </si>
@@ -141,10 +139,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">2. 기획/프로그래밍 목표 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>명칭</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -209,22 +203,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5월 27 ~ 6월 2일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - UI, AI, 조작 등 기존에서 다듬는 작업</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> -  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> -  드론 AI 수정, 조정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -233,10 +215,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 카메라 연출 위주로 작업</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -257,10 +235,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>목</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>금</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -314,34 +288,6 @@
   </si>
   <si>
     <t>배경 그래픽 2섹션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6월 3일 ~ 6월 9일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6월 10일 ~ 6월 16일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6월 17일 ~ 6월 23일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -575,10 +521,6 @@
     <t>일</t>
   </si>
   <si>
-    <t>2-2섹션 외곽 모델링</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2-2섹션 uv작업</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -588,10 +530,6 @@
   </si>
   <si>
     <t>더미 ui 제작 및 적용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>실 ui 작업 및 화면 적용</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -650,18 +588,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>크리쳐 추가 수정 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>배경 텍스쳐 작업</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>배경 텍스쳐 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>추가 작업</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -674,146 +604,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>외곽 uv작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>컨셉 세부 원화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1섹션 배치작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2섹션 배치작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브젝트 uv작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>더미 UI 제작 및 적용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>실 UI작업 및 적용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-2섹션 추가 오브젝트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sky박스 구상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-2섹션 uv작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배경 텍스쳐 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브젝트 uv작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>라이팅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>실 UI 작업 및 화면 적용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/UX 수정 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브젝트 uv작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>크리쳐 추가 수정 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sky 박스 구상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sky 박스 수정 및 큐브맵 조정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브젝트 전광판 내용 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-1섹션 원화 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>카메라워킹에 따른 캐릭터/오브젝트 애니메이션 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>발판드론 이펙트 제작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>라이팅에 따른 이펙트 색감 조정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배경 텍스쳐 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>라이팅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/ux 수정작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui미적용/적용 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배경 텍스쳐 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sky 박스 수정 및 큐브멥 조정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 2-1 원화 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>애니메이팅 조정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>라이팅에 따른 이펙트 조정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>타이틀 작업</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1074,24 +864,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>오브젝트 UV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 행동 컨셉화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-3섹션 추가 오브젝트, 레일, 자판기 모델링, 
-UV 작업, 홀로그램텍스쳐링</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브젝트
-UV 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>크레인 오브젝트[최다빈]</t>
   </si>
   <si>
@@ -1107,10 +879,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>크레인 오브젝트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>안쓰는 파일 정리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1163,147 +931,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 2섹션 작업, 레밸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 조작감 다듬기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> -  2-2섹션 레밸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 추가 오브젝트 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-2섹션 레밸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-2섹션 기획의도, 레밸 적용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상호작용 오브젝트 추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>컨테이너 +a 추가 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강동민, 박성혁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강일구, 정성윤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-2섹션 외곽선 모델링</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>허성훈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>외곽 UV작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신명수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브젝트 UV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배경 그래픽 오브젝트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>플랫폼 모델링</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>윤영조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>레일, 자판기 모델링</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김재령</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>애니메이션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>크레인 오브젝트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>카메라 연출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>타임 라인, 애니메이션 구상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>타임라인 및 EMP이펙트 조정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최다빈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>카메라 타임 라인 구도작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>배경 색감</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배경 색감</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>카메라 타임라인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배경 색감 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오예은, 허성훈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신드론 Ai</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고도 인식과 2층 추적, 컨테이너 인식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강동민, 박성혁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김재령,구여진,최다빈, 오예은</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1381,6 +1009,106 @@
   </si>
   <si>
     <t>재윤: 월요일 일정 이야기 할것</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">카메라 연출 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>차기작 준비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로비화면 점프 애니메이션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임오버, 일시정지, 메인화면 UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ui 사이즈 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>차기작 준비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부일정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 문서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">작성날짜 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">작성자 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">내용 </t>
+  </si>
+  <si>
+    <t>기타</t>
+  </si>
+  <si>
+    <t>목차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 일정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 세부 일정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강동민</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2. 기획/프로그래밍 목표 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1. 전체작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2. 기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3. 그래픽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4. 프로그래머</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1. 개요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-2. 기획/프로그래밍 목표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3. 그래픽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-4. 구현목표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망, 사망후 재시작</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1388,7 +1116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1449,7 +1177,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -1457,15 +1186,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1533,8 +1271,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
       </patternFill>
     </fill>
   </fills>
@@ -1958,15 +1701,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2093,9 +1839,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2106,12 +1849,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
@@ -2120,21 +1857,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2201,13 +1923,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2220,15 +1936,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2243,34 +1950,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2279,69 +2049,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2364,9 +2071,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2396,66 +2100,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2492,23 +2157,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="강조색3" xfId="2" builtinId="37"/>
     <cellStyle name="셀 확인" xfId="1" builtinId="23"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2864,10 +2527,257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="11" style="88" customWidth="1"/>
+    <col min="4" max="4" width="51.25" style="88" customWidth="1"/>
+    <col min="5" max="5" width="9" style="88"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="85" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="86" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" s="86" t="s">
+        <v>260</v>
+      </c>
+      <c r="E4" s="86" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="87">
+        <v>43613</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="87">
+        <v>43614</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="87">
+        <v>43615</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="87">
+        <v>43616</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="87">
+        <v>43617</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="87">
+        <v>43618</v>
+      </c>
+      <c r="C10" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="87">
+        <v>43619</v>
+      </c>
+      <c r="C11" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="87">
+        <v>43620</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="87">
+        <v>43621</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="87">
+        <v>43622</v>
+      </c>
+      <c r="C14" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="87">
+        <v>43623</v>
+      </c>
+      <c r="C15" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="87">
+        <v>43624</v>
+      </c>
+      <c r="C16" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="87">
+        <v>43625</v>
+      </c>
+      <c r="C17" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="87">
+        <v>43626</v>
+      </c>
+      <c r="C18" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+    </row>
+    <row r="21" spans="2:5" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B21" s="33" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B22" s="84" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22" s="89"/>
+    </row>
+    <row r="23" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B23" s="90"/>
+      <c r="C23" s="90" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B24" s="90"/>
+      <c r="C24" s="90" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B25" s="90"/>
+      <c r="C25" s="90" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B26" s="90"/>
+      <c r="C26" s="90" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B27" s="84" t="s">
+        <v>264</v>
+      </c>
+      <c r="C27" s="89"/>
+    </row>
+    <row r="28" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B28" s="90"/>
+      <c r="C28" s="90" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B29" s="90"/>
+      <c r="C29" s="90" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B30" s="90"/>
+      <c r="C30" s="90" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B31" s="90"/>
+      <c r="C31" s="90" t="s">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AH63"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57:G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2903,97 +2813,97 @@
     </row>
     <row r="3" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B3" s="15"/>
-      <c r="C3" s="68"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="28"/>
       <c r="E3" s="26"/>
       <c r="F3" s="27"/>
     </row>
     <row r="5" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125" t="s">
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125" t="s">
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
-      <c r="O5" s="125" t="s">
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="125"/>
-      <c r="R5" s="125"/>
-      <c r="S5" s="125" t="s">
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="112"/>
+      <c r="S5" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="T5" s="125"/>
-      <c r="U5" s="125"/>
-      <c r="V5" s="125"/>
-      <c r="W5" s="125" t="s">
+      <c r="T5" s="112"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="112"/>
+      <c r="W5" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="X5" s="125"/>
-      <c r="Y5" s="125"/>
-      <c r="Z5" s="125"/>
-      <c r="AA5" s="125" t="s">
+      <c r="X5" s="112"/>
+      <c r="Y5" s="112"/>
+      <c r="Z5" s="112"/>
+      <c r="AA5" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="AB5" s="125"/>
-      <c r="AC5" s="125"/>
-      <c r="AD5" s="125"/>
-      <c r="AE5" s="125" t="s">
+      <c r="AB5" s="112"/>
+      <c r="AC5" s="112"/>
+      <c r="AD5" s="112"/>
+      <c r="AE5" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="AF5" s="125"/>
-      <c r="AG5" s="125"/>
-      <c r="AH5" s="125"/>
+      <c r="AF5" s="112"/>
+      <c r="AG5" s="112"/>
+      <c r="AH5" s="112"/>
     </row>
     <row r="6" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="139"/>
-      <c r="P6" s="139"/>
-      <c r="Q6" s="139"/>
-      <c r="R6" s="139"/>
-      <c r="S6" s="139"/>
-      <c r="T6" s="139"/>
-      <c r="U6" s="139"/>
-      <c r="V6" s="139"/>
-      <c r="W6" s="139"/>
-      <c r="X6" s="139"/>
-      <c r="Y6" s="139"/>
-      <c r="Z6" s="139"/>
-      <c r="AA6" s="139"/>
-      <c r="AB6" s="139"/>
-      <c r="AC6" s="139"/>
-      <c r="AD6" s="139"/>
-      <c r="AE6" s="139"/>
-      <c r="AF6" s="139"/>
-      <c r="AG6" s="139"/>
-      <c r="AH6" s="139"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="125"/>
+      <c r="P6" s="125"/>
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="125"/>
+      <c r="T6" s="125"/>
+      <c r="U6" s="125"/>
+      <c r="V6" s="125"/>
+      <c r="W6" s="125"/>
+      <c r="X6" s="125"/>
+      <c r="Y6" s="125"/>
+      <c r="Z6" s="125"/>
+      <c r="AA6" s="125"/>
+      <c r="AB6" s="125"/>
+      <c r="AC6" s="125"/>
+      <c r="AD6" s="125"/>
+      <c r="AE6" s="125"/>
+      <c r="AF6" s="125"/>
+      <c r="AG6" s="125"/>
+      <c r="AH6" s="125"/>
     </row>
     <row r="7" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -3095,17 +3005,17 @@
       </c>
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B8" s="135" t="s">
+      <c r="B8" s="121" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="17"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="106" t="s">
-        <v>201</v>
-      </c>
-      <c r="H8" s="107"/>
+      <c r="G8" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" s="94"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -3134,19 +3044,19 @@
       <c r="AH8" s="5"/>
     </row>
     <row r="9" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B9" s="136"/>
-      <c r="C9" s="104" t="s">
+      <c r="B9" s="122"/>
+      <c r="C9" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="105"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="92"/>
       <c r="F9" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="106" t="s">
-        <v>202</v>
-      </c>
-      <c r="H9" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="G9" s="93" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" s="94"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -3175,20 +3085,20 @@
       <c r="AH9" s="7"/>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B10" s="136"/>
-      <c r="C10" s="104" t="s">
+      <c r="B10" s="122"/>
+      <c r="C10" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="105"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="92"/>
       <c r="F10" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="106" t="s">
-        <v>205</v>
-      </c>
-      <c r="H10" s="119"/>
-      <c r="I10" s="107"/>
+        <v>58</v>
+      </c>
+      <c r="G10" s="93" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" s="104"/>
+      <c r="I10" s="94"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -3216,14 +3126,14 @@
       <c r="AH10" s="7"/>
     </row>
     <row r="11" spans="2:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="136"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="9"/>
       <c r="D11" s="8"/>
       <c r="F11" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" s="62" t="s">
-        <v>206</v>
+        <v>93</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>154</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -3254,14 +3164,14 @@
       <c r="AH11" s="8"/>
     </row>
     <row r="12" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B12" s="136"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="102" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" s="103"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="110" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="111"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -3291,18 +3201,18 @@
       <c r="AH12" s="7"/>
     </row>
     <row r="13" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B13" s="136"/>
+      <c r="B13" s="122"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="7"/>
       <c r="F13" s="41" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="106" t="s">
-        <v>247</v>
-      </c>
-      <c r="I13" s="107"/>
+      <c r="H13" s="93" t="s">
+        <v>195</v>
+      </c>
+      <c r="I13" s="94"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -3330,19 +3240,19 @@
       <c r="AH13" s="7"/>
     </row>
     <row r="14" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B14" s="137"/>
+      <c r="B14" s="123"/>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="106" t="s">
-        <v>208</v>
-      </c>
-      <c r="G14" s="107"/>
-      <c r="H14" s="106" t="s">
-        <v>203</v>
-      </c>
-      <c r="I14" s="119"/>
-      <c r="J14" s="57"/>
+      <c r="F14" s="93" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="94"/>
+      <c r="H14" s="93" t="s">
+        <v>151</v>
+      </c>
+      <c r="I14" s="104"/>
+      <c r="J14" s="49"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
@@ -3369,14 +3279,14 @@
       <c r="AH14" s="7"/>
     </row>
     <row r="15" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B15" s="136"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="106" t="s">
-        <v>200</v>
-      </c>
-      <c r="G15" s="107"/>
+      <c r="F15" s="93" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" s="94"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -3406,14 +3316,14 @@
       <c r="AH15" s="7"/>
     </row>
     <row r="16" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B16" s="136"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="120" t="s">
-        <v>204</v>
-      </c>
-      <c r="G16" s="121"/>
+      <c r="F16" s="105" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" s="106"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -3443,14 +3353,14 @@
       <c r="AH16" s="7"/>
     </row>
     <row r="17" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B17" s="136"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="120" t="s">
-        <v>207</v>
-      </c>
-      <c r="G17" s="121"/>
+      <c r="F17" s="105" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" s="106"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -3480,12 +3390,12 @@
       <c r="AH17" s="7"/>
     </row>
     <row r="18" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B18" s="136"/>
+      <c r="B18" s="122"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="31" t="s">
-        <v>246</v>
+        <v>194</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -3517,7 +3427,7 @@
       <c r="AH18" s="7"/>
     </row>
     <row r="19" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B19" s="136"/>
+      <c r="B19" s="122"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -3552,19 +3462,19 @@
       <c r="AH19" s="7"/>
     </row>
     <row r="20" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B20" s="138"/>
+      <c r="B20" s="124"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="58" t="s">
-        <v>333</v>
-      </c>
-      <c r="H20" s="58" t="s">
-        <v>333</v>
-      </c>
-      <c r="I20" s="58" t="s">
-        <v>333</v>
+      <c r="G20" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="H20" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="I20" s="50" t="s">
+        <v>241</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -3593,91 +3503,91 @@
       <c r="AH20" s="7"/>
     </row>
     <row r="23" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="C23" s="125" t="s">
+      <c r="C23" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="125"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="125" t="s">
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="H23" s="125"/>
-      <c r="I23" s="125"/>
-      <c r="J23" s="125"/>
-      <c r="K23" s="125" t="s">
+      <c r="H23" s="112"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="L23" s="125"/>
-      <c r="M23" s="125"/>
-      <c r="N23" s="125"/>
-      <c r="O23" s="125" t="s">
+      <c r="L23" s="112"/>
+      <c r="M23" s="112"/>
+      <c r="N23" s="112"/>
+      <c r="O23" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="P23" s="125"/>
-      <c r="Q23" s="125"/>
-      <c r="R23" s="125"/>
-      <c r="S23" s="125" t="s">
+      <c r="P23" s="112"/>
+      <c r="Q23" s="112"/>
+      <c r="R23" s="112"/>
+      <c r="S23" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="T23" s="125"/>
-      <c r="U23" s="125"/>
-      <c r="V23" s="125"/>
-      <c r="W23" s="125" t="s">
+      <c r="T23" s="112"/>
+      <c r="U23" s="112"/>
+      <c r="V23" s="112"/>
+      <c r="W23" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="X23" s="125"/>
-      <c r="Y23" s="125"/>
-      <c r="Z23" s="125"/>
-      <c r="AA23" s="125" t="s">
+      <c r="X23" s="112"/>
+      <c r="Y23" s="112"/>
+      <c r="Z23" s="112"/>
+      <c r="AA23" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="AB23" s="125"/>
-      <c r="AC23" s="125"/>
-      <c r="AD23" s="125"/>
-      <c r="AE23" s="125" t="s">
+      <c r="AB23" s="112"/>
+      <c r="AC23" s="112"/>
+      <c r="AD23" s="112"/>
+      <c r="AE23" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="AF23" s="125"/>
-      <c r="AG23" s="125"/>
-      <c r="AH23" s="125"/>
+      <c r="AF23" s="112"/>
+      <c r="AG23" s="112"/>
+      <c r="AH23" s="112"/>
     </row>
     <row r="24" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="139"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="139"/>
-      <c r="J24" s="139"/>
-      <c r="K24" s="139"/>
-      <c r="L24" s="139"/>
-      <c r="M24" s="139"/>
-      <c r="N24" s="139"/>
-      <c r="O24" s="139"/>
-      <c r="P24" s="139"/>
-      <c r="Q24" s="139"/>
-      <c r="R24" s="139"/>
-      <c r="S24" s="139"/>
-      <c r="T24" s="139"/>
-      <c r="U24" s="139"/>
-      <c r="V24" s="139"/>
-      <c r="W24" s="139"/>
-      <c r="X24" s="139"/>
-      <c r="Y24" s="139"/>
-      <c r="Z24" s="139"/>
-      <c r="AA24" s="139"/>
-      <c r="AB24" s="139"/>
-      <c r="AC24" s="139"/>
-      <c r="AD24" s="139"/>
-      <c r="AE24" s="139"/>
-      <c r="AF24" s="139"/>
-      <c r="AG24" s="139"/>
-      <c r="AH24" s="139"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="125"/>
+      <c r="J24" s="125"/>
+      <c r="K24" s="125"/>
+      <c r="L24" s="125"/>
+      <c r="M24" s="125"/>
+      <c r="N24" s="125"/>
+      <c r="O24" s="125"/>
+      <c r="P24" s="125"/>
+      <c r="Q24" s="125"/>
+      <c r="R24" s="125"/>
+      <c r="S24" s="125"/>
+      <c r="T24" s="125"/>
+      <c r="U24" s="125"/>
+      <c r="V24" s="125"/>
+      <c r="W24" s="125"/>
+      <c r="X24" s="125"/>
+      <c r="Y24" s="125"/>
+      <c r="Z24" s="125"/>
+      <c r="AA24" s="125"/>
+      <c r="AB24" s="125"/>
+      <c r="AC24" s="125"/>
+      <c r="AD24" s="125"/>
+      <c r="AE24" s="125"/>
+      <c r="AF24" s="125"/>
+      <c r="AG24" s="125"/>
+      <c r="AH24" s="125"/>
     </row>
     <row r="25" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B25" s="12"/>
@@ -3779,14 +3689,14 @@
       </c>
     </row>
     <row r="26" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B26" s="126" t="s">
+      <c r="B26" s="113" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="67" t="s">
-        <v>245</v>
+      <c r="E26" s="42"/>
+      <c r="F26" s="59" t="s">
+        <v>193</v>
       </c>
       <c r="G26" s="5"/>
       <c r="I26" s="5"/>
@@ -3817,16 +3727,16 @@
       <c r="AH26" s="5"/>
     </row>
     <row r="27" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B27" s="126"/>
-      <c r="C27" s="122" t="s">
+      <c r="B27" s="113"/>
+      <c r="C27" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="123"/>
+      <c r="D27" s="108"/>
       <c r="E27" s="25"/>
-      <c r="F27" s="124" t="s">
-        <v>108</v>
-      </c>
-      <c r="G27" s="103"/>
+      <c r="F27" s="109" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="92"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
@@ -3856,14 +3766,14 @@
       <c r="AH27" s="7"/>
     </row>
     <row r="28" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B28" s="126"/>
+      <c r="B28" s="113"/>
       <c r="C28" s="31" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="11"/>
       <c r="F28" s="31" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -3895,16 +3805,16 @@
       <c r="AH28" s="7"/>
     </row>
     <row r="29" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B29" s="126"/>
+      <c r="B29" s="113"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="129" t="s">
+      <c r="D29" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="130"/>
-      <c r="F29" s="102" t="s">
-        <v>260</v>
-      </c>
-      <c r="G29" s="103"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="91" t="s">
+        <v>208</v>
+      </c>
+      <c r="G29" s="92"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -3934,14 +3844,14 @@
       <c r="AH29" s="8"/>
     </row>
     <row r="30" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B30" s="126"/>
-      <c r="C30" s="112" t="s">
+      <c r="B30" s="113"/>
+      <c r="C30" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="113"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="66" t="s">
-        <v>241</v>
+      <c r="D30" s="100"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="58" t="s">
+        <v>189</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -3973,7 +3883,7 @@
       <c r="AH30" s="7"/>
     </row>
     <row r="31" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B31" s="126"/>
+      <c r="B31" s="113"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
@@ -4008,7 +3918,7 @@
       <c r="AH31" s="7"/>
     </row>
     <row r="32" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B32" s="126"/>
+      <c r="B32" s="113"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -4043,7 +3953,7 @@
       <c r="AH32" s="7"/>
     </row>
     <row r="33" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B33" s="126"/>
+      <c r="B33" s="113"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -4078,19 +3988,19 @@
       <c r="AH33" s="7"/>
     </row>
     <row r="34" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B34" s="126"/>
+      <c r="B34" s="113"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="98" t="s">
-        <v>334</v>
-      </c>
-      <c r="H34" s="58" t="s">
-        <v>334</v>
-      </c>
-      <c r="I34" s="58" t="s">
-        <v>334</v>
+      <c r="G34" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="H34" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="I34" s="50" t="s">
+        <v>242</v>
       </c>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
@@ -4119,20 +4029,20 @@
       <c r="AH34" s="7"/>
     </row>
     <row r="35" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B35" s="126" t="s">
+      <c r="B35" s="113" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="21"/>
       <c r="E35" s="7"/>
-      <c r="F35" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="G35" s="106" t="s">
-        <v>217</v>
-      </c>
-      <c r="H35" s="107"/>
-      <c r="I35" s="56"/>
+      <c r="F35" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35" s="93" t="s">
+        <v>165</v>
+      </c>
+      <c r="H35" s="94"/>
+      <c r="I35" s="48"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
@@ -4160,20 +4070,20 @@
       <c r="AH35" s="7"/>
     </row>
     <row r="36" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B36" s="126"/>
+      <c r="B36" s="113"/>
       <c r="C36" s="22"/>
       <c r="D36" s="24"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="98" t="s">
-        <v>210</v>
-      </c>
-      <c r="G36" s="96" t="s">
-        <v>340</v>
-      </c>
-      <c r="H36" s="106" t="s">
-        <v>219</v>
-      </c>
-      <c r="I36" s="107"/>
+      <c r="F36" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="G36" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="H36" s="93" t="s">
+        <v>167</v>
+      </c>
+      <c r="I36" s="94"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
@@ -4201,18 +4111,18 @@
       <c r="AH36" s="7"/>
     </row>
     <row r="37" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B37" s="126"/>
+      <c r="B37" s="113"/>
       <c r="C37" s="23"/>
       <c r="D37" s="25"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="G37" s="97"/>
-      <c r="H37" s="106" t="s">
-        <v>220</v>
-      </c>
-      <c r="I37" s="107"/>
+      <c r="F37" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37" s="80"/>
+      <c r="H37" s="93" t="s">
+        <v>168</v>
+      </c>
+      <c r="I37" s="94"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
@@ -4240,18 +4150,18 @@
       <c r="AH37" s="7"/>
     </row>
     <row r="38" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B38" s="126"/>
+      <c r="B38" s="113"/>
       <c r="C38" s="19"/>
       <c r="D38" s="11"/>
       <c r="E38" s="7"/>
-      <c r="F38" s="70" t="s">
-        <v>116</v>
-      </c>
-      <c r="G38" s="98" t="s">
-        <v>331</v>
-      </c>
-      <c r="H38" s="110"/>
-      <c r="I38" s="111"/>
+      <c r="F38" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="G38" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="H38" s="97"/>
+      <c r="I38" s="98"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
@@ -4279,20 +4189,20 @@
       <c r="AH38" s="7"/>
     </row>
     <row r="39" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B39" s="126"/>
+      <c r="B39" s="113"/>
       <c r="C39" s="25"/>
-      <c r="D39" s="133" t="s">
+      <c r="D39" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="105"/>
-      <c r="F39" s="70" t="s">
-        <v>209</v>
-      </c>
-      <c r="G39" s="106" t="s">
-        <v>218</v>
-      </c>
-      <c r="H39" s="107"/>
-      <c r="I39" s="56"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="G39" s="93" t="s">
+        <v>166</v>
+      </c>
+      <c r="H39" s="94"/>
+      <c r="I39" s="48"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
@@ -4320,20 +4230,20 @@
       <c r="AH39" s="7"/>
     </row>
     <row r="40" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B40" s="126"/>
+      <c r="B40" s="113"/>
       <c r="C40" s="25"/>
-      <c r="D40" s="131" t="s">
+      <c r="D40" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="130"/>
-      <c r="F40" s="116" t="s">
-        <v>211</v>
-      </c>
-      <c r="G40" s="117"/>
-      <c r="H40" s="114" t="s">
-        <v>221</v>
-      </c>
-      <c r="I40" s="115"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="91" t="s">
+        <v>159</v>
+      </c>
+      <c r="G40" s="92"/>
+      <c r="H40" s="101" t="s">
+        <v>169</v>
+      </c>
+      <c r="I40" s="102"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
@@ -4344,18 +4254,18 @@
       <c r="Q40" s="7"/>
     </row>
     <row r="41" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B41" s="126"/>
-      <c r="C41" s="112" t="s">
+      <c r="B41" s="113"/>
+      <c r="C41" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="132"/>
+      <c r="D41" s="119"/>
       <c r="E41" s="6"/>
-      <c r="F41" s="104" t="s">
-        <v>284</v>
-      </c>
-      <c r="G41" s="109"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="45"/>
+      <c r="F41" s="91" t="s">
+        <v>227</v>
+      </c>
+      <c r="G41" s="96"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="44"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
@@ -4366,14 +4276,14 @@
       <c r="Q41" s="7"/>
     </row>
     <row r="42" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B42" s="126"/>
+      <c r="B42" s="113"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="7"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="56"/>
+      <c r="F42" s="97"/>
+      <c r="G42" s="98"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="48"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
@@ -4384,18 +4294,18 @@
       <c r="Q42" s="7"/>
     </row>
     <row r="43" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B43" s="126"/>
+      <c r="B43" s="113"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="7"/>
-      <c r="F43" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="G43" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
+      <c r="F43" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="G43" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -4406,19 +4316,19 @@
       <c r="Q43" s="7"/>
     </row>
     <row r="44" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B44" s="126"/>
+      <c r="B44" s="113"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="70" t="s">
-        <v>225</v>
-      </c>
-      <c r="G44" s="106" t="s">
-        <v>215</v>
-      </c>
-      <c r="H44" s="107"/>
-      <c r="I44" s="58" t="s">
-        <v>216</v>
+      <c r="F44" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="G44" s="93" t="s">
+        <v>163</v>
+      </c>
+      <c r="H44" s="94"/>
+      <c r="I44" s="50" t="s">
+        <v>164</v>
       </c>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
@@ -4430,18 +4340,18 @@
       <c r="Q44" s="7"/>
     </row>
     <row r="45" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B45" s="126"/>
+      <c r="B45" s="113"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="70" t="s">
-        <v>214</v>
-      </c>
-      <c r="G45" s="96" t="s">
-        <v>280</v>
-      </c>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
+      <c r="F45" s="62" t="s">
+        <v>162</v>
+      </c>
+      <c r="G45" s="62" t="s">
+        <v>223</v>
+      </c>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
@@ -4452,18 +4362,18 @@
       <c r="Q45" s="7"/>
     </row>
     <row r="46" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B46" s="126"/>
+      <c r="B46" s="113"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
       <c r="E46" s="7"/>
-      <c r="F46" s="77" t="s">
-        <v>262</v>
-      </c>
-      <c r="G46" s="101" t="s">
-        <v>223</v>
-      </c>
-      <c r="H46" s="56"/>
-      <c r="I46" s="56"/>
+      <c r="F46" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="G46" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
@@ -4474,16 +4384,16 @@
       <c r="Q46" s="7"/>
     </row>
     <row r="47" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B47" s="126"/>
+      <c r="B47" s="113"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="71" t="s">
-        <v>226</v>
+      <c r="E47" s="53"/>
+      <c r="F47" s="63" t="s">
+        <v>174</v>
       </c>
       <c r="G47" s="22"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="56"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="48"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
@@ -4494,16 +4404,16 @@
       <c r="Q47" s="7"/>
     </row>
     <row r="48" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B48" s="126"/>
+      <c r="B48" s="113"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="108" t="s">
-        <v>240</v>
-      </c>
-      <c r="G48" s="108"/>
-      <c r="H48" s="63"/>
-      <c r="I48" s="56"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="95" t="s">
+        <v>188</v>
+      </c>
+      <c r="G48" s="95"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="48"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
@@ -4514,17 +4424,17 @@
       <c r="Q48" s="7"/>
     </row>
     <row r="49" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B49" s="126"/>
+      <c r="B49" s="113"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
-      <c r="F49" s="72" t="s">
-        <v>254</v>
-      </c>
-      <c r="G49" s="100" t="s">
-        <v>269</v>
-      </c>
-      <c r="H49" s="83"/>
-      <c r="I49" s="56"/>
+      <c r="F49" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="G49" s="81" t="s">
+        <v>213</v>
+      </c>
+      <c r="H49" s="73"/>
+      <c r="I49" s="48"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
@@ -4535,16 +4445,16 @@
       <c r="Q49" s="7"/>
     </row>
     <row r="50" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B50" s="126"/>
+      <c r="B50" s="113"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="112" t="s">
-        <v>270</v>
-      </c>
-      <c r="G50" s="113"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="81"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="99" t="s">
+        <v>214</v>
+      </c>
+      <c r="G50" s="100"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="71"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
@@ -4555,18 +4465,18 @@
       <c r="Q50" s="7"/>
     </row>
     <row r="51" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B51" s="126"/>
+      <c r="B51" s="113"/>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="72" t="s">
+      <c r="E51" s="53"/>
+      <c r="F51" s="64" t="s">
+        <v>191</v>
+      </c>
+      <c r="G51" s="82" t="s">
         <v>243</v>
       </c>
-      <c r="G51" s="99" t="s">
-        <v>335</v>
-      </c>
-      <c r="H51" s="84"/>
-      <c r="I51" s="56"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="48"/>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
@@ -4577,18 +4487,18 @@
       <c r="Q51" s="7"/>
     </row>
     <row r="52" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B52" s="126"/>
+      <c r="B52" s="113"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="82" t="s">
-        <v>244</v>
-      </c>
-      <c r="G52" s="99" t="s">
-        <v>326</v>
-      </c>
-      <c r="H52" s="76"/>
-      <c r="I52" s="56"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="G52" s="82" t="s">
+        <v>234</v>
+      </c>
+      <c r="H52" s="68"/>
+      <c r="I52" s="48"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
@@ -4599,18 +4509,18 @@
       <c r="Q52" s="7"/>
     </row>
     <row r="53" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B53" s="126"/>
+      <c r="B53" s="113"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="90" t="s">
-        <v>324</v>
-      </c>
-      <c r="G53" s="92" t="s">
-        <v>328</v>
-      </c>
-      <c r="H53" s="73"/>
-      <c r="I53" s="56"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="77" t="s">
+        <v>232</v>
+      </c>
+      <c r="G53" s="82" t="s">
+        <v>236</v>
+      </c>
+      <c r="H53" s="65"/>
+      <c r="I53" s="48"/>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
@@ -4621,16 +4531,16 @@
       <c r="Q53" s="7"/>
     </row>
     <row r="54" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B54" s="126"/>
+      <c r="B54" s="113"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="108" t="s">
-        <v>325</v>
-      </c>
-      <c r="G54" s="108"/>
-      <c r="H54" s="76"/>
-      <c r="I54" s="56"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="95" t="s">
+        <v>233</v>
+      </c>
+      <c r="G54" s="95"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="48"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
@@ -4641,17 +4551,17 @@
       <c r="Q54" s="7"/>
     </row>
     <row r="55" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B55" s="126" t="s">
+      <c r="B55" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="131" t="s">
+      <c r="C55" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="134"/>
-      <c r="E55" s="130"/>
-      <c r="F55" s="91"/>
-      <c r="G55" s="42" t="s">
-        <v>111</v>
+      <c r="D55" s="120"/>
+      <c r="E55" s="117"/>
+      <c r="F55" s="78"/>
+      <c r="G55" s="59" t="s">
+        <v>98</v>
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
@@ -4681,14 +4591,14 @@
       <c r="AH55" s="5"/>
     </row>
     <row r="56" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B56" s="126"/>
+      <c r="B56" s="113"/>
       <c r="C56" s="30"/>
-      <c r="D56" s="112" t="s">
+      <c r="D56" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="E56" s="132"/>
-      <c r="F56" s="88" t="s">
-        <v>112</v>
+      <c r="E56" s="119"/>
+      <c r="F56" s="75" t="s">
+        <v>99</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
@@ -4720,14 +4630,14 @@
       <c r="AH56" s="7"/>
     </row>
     <row r="57" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B57" s="126"/>
+      <c r="B57" s="113"/>
       <c r="C57" s="32"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
-      <c r="F57" s="102" t="s">
-        <v>113</v>
-      </c>
-      <c r="G57" s="103"/>
+      <c r="F57" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="G57" s="92"/>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
@@ -4757,12 +4667,12 @@
       <c r="AH57" s="7"/>
     </row>
     <row r="58" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B58" s="126"/>
+      <c r="B58" s="113"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
-      <c r="F58" s="77" t="s">
-        <v>114</v>
+      <c r="F58" s="69" t="s">
+        <v>101</v>
       </c>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
@@ -4794,14 +4704,14 @@
       <c r="AH58" s="8"/>
     </row>
     <row r="59" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B59" s="126"/>
+      <c r="B59" s="113"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
-      <c r="F59" s="104" t="s">
-        <v>242</v>
-      </c>
-      <c r="G59" s="105"/>
+      <c r="F59" s="91" t="s">
+        <v>190</v>
+      </c>
+      <c r="G59" s="92"/>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
@@ -4831,7 +4741,7 @@
       <c r="AH59" s="7"/>
     </row>
     <row r="60" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B60" s="126"/>
+      <c r="B60" s="113"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -4866,7 +4776,7 @@
       <c r="AH60" s="7"/>
     </row>
     <row r="61" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B61" s="126"/>
+      <c r="B61" s="113"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -4901,7 +4811,7 @@
       <c r="AH61" s="7"/>
     </row>
     <row r="62" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B62" s="126"/>
+      <c r="B62" s="113"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
@@ -4936,7 +4846,7 @@
       <c r="AH62" s="7"/>
     </row>
     <row r="63" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B63" s="126"/>
+      <c r="B63" s="113"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -5053,12 +4963,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AN60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE28" sqref="AE28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA28" sqref="AA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5076,17 +4986,18 @@
     <col min="21" max="21" width="11" customWidth="1"/>
     <col min="22" max="24" width="10.875" customWidth="1"/>
     <col min="25" max="26" width="14.375" customWidth="1"/>
+    <col min="30" max="30" width="13" customWidth="1"/>
     <col min="31" max="31" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:40" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="33" t="s">
-        <v>47</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="2:40" x14ac:dyDescent="0.3">
       <c r="I3" s="15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J3" s="15" t="s">
         <v>16</v>
@@ -5113,163 +5024,163 @@
     </row>
     <row r="5" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B8" s="34" t="s">
-        <v>30</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:40" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>263</v>
-      </c>
-      <c r="L10" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" s="159" t="s">
+        <v>211</v>
+      </c>
+      <c r="L10" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="159"/>
-      <c r="O10" s="159"/>
-      <c r="P10" s="159"/>
-      <c r="Q10" s="159"/>
-      <c r="R10" s="159" t="s">
-        <v>152</v>
-      </c>
-      <c r="S10" s="159"/>
-      <c r="T10" s="159"/>
-      <c r="U10" s="159"/>
-      <c r="V10" s="159"/>
-      <c r="W10" s="159"/>
-      <c r="X10" s="159"/>
-      <c r="Y10" s="159"/>
-      <c r="Z10" s="159"/>
-      <c r="AA10" s="163" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB10" s="164"/>
-      <c r="AC10" s="164"/>
-      <c r="AD10" s="164"/>
-      <c r="AE10" s="164"/>
-      <c r="AF10" s="164"/>
-      <c r="AG10" s="165"/>
-      <c r="AH10" s="163" t="s">
-        <v>154</v>
-      </c>
-      <c r="AI10" s="164"/>
-      <c r="AJ10" s="164"/>
-      <c r="AK10" s="164"/>
-      <c r="AL10" s="164"/>
-      <c r="AM10" s="164"/>
-      <c r="AN10" s="165"/>
+      <c r="M10" s="135" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="135"/>
+      <c r="O10" s="135"/>
+      <c r="P10" s="135"/>
+      <c r="Q10" s="135"/>
+      <c r="R10" s="135" t="s">
+        <v>137</v>
+      </c>
+      <c r="S10" s="135"/>
+      <c r="T10" s="135"/>
+      <c r="U10" s="135"/>
+      <c r="V10" s="135"/>
+      <c r="W10" s="135"/>
+      <c r="X10" s="135"/>
+      <c r="Y10" s="135"/>
+      <c r="Z10" s="135"/>
+      <c r="AA10" s="136" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB10" s="137"/>
+      <c r="AC10" s="137"/>
+      <c r="AD10" s="137"/>
+      <c r="AE10" s="137"/>
+      <c r="AF10" s="137"/>
+      <c r="AG10" s="138"/>
+      <c r="AH10" s="136" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI10" s="137"/>
+      <c r="AJ10" s="137"/>
+      <c r="AK10" s="137"/>
+      <c r="AL10" s="137"/>
+      <c r="AM10" s="137"/>
+      <c r="AN10" s="138"/>
     </row>
     <row r="11" spans="2:40" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="L11" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q11" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="R11" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="M11" s="30" t="s">
+      <c r="S11" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="N11" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="O11" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="P11" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q11" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="R11" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="S11" s="30" t="s">
-        <v>62</v>
-      </c>
       <c r="T11" s="30" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="U11" s="30" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="V11" s="30" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="W11" s="30" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="X11" s="30" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="Y11" s="30" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="Z11" s="30" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="AA11" s="30" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="AB11" s="30" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="AC11" s="30" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AD11" s="30" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="AE11" s="30" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AF11" s="30" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="AG11" s="30" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="AH11" s="30" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="AI11" s="30" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="AJ11" s="30" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AK11" s="30" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="AL11" s="30" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AM11" s="30" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="AN11" s="30" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="2:40" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L12" s="50" t="s">
-        <v>44</v>
+      <c r="L12" s="47" t="s">
+        <v>43</v>
       </c>
       <c r="M12" s="39">
         <v>27</v>
@@ -5358,931 +5269,937 @@
     </row>
     <row r="13" spans="2:40" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B13" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="131" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="155" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="155"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="35" t="s">
+      <c r="H13" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="35" t="s">
-        <v>39</v>
-      </c>
       <c r="L13" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="M13" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="N13" s="113"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="113"/>
-      <c r="R13" s="151" t="s">
-        <v>283</v>
-      </c>
-      <c r="S13" s="152"/>
-      <c r="T13" s="152"/>
-      <c r="U13" s="152"/>
-      <c r="V13" s="152"/>
-      <c r="W13" s="152"/>
-      <c r="X13" s="153"/>
-      <c r="Y13" s="140" t="s">
-        <v>338</v>
-      </c>
-      <c r="Z13" s="142"/>
-      <c r="AA13" s="126" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB13" s="126"/>
-      <c r="AC13" s="126"/>
-      <c r="AD13" s="126"/>
-      <c r="AE13" s="126" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF13" s="126"/>
-      <c r="AG13" s="126"/>
-      <c r="AH13" s="126"/>
-      <c r="AI13" s="126"/>
-      <c r="AJ13" s="126"/>
-      <c r="AK13" s="126"/>
-      <c r="AL13" s="126"/>
-      <c r="AM13" s="166" t="s">
-        <v>162</v>
-      </c>
-      <c r="AN13" s="167"/>
+        <v>104</v>
+      </c>
+      <c r="M13" s="99" t="s">
+        <v>112</v>
+      </c>
+      <c r="N13" s="100"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="100"/>
+      <c r="Q13" s="100"/>
+      <c r="R13" s="99" t="s">
+        <v>226</v>
+      </c>
+      <c r="S13" s="100"/>
+      <c r="T13" s="100"/>
+      <c r="U13" s="100"/>
+      <c r="V13" s="100"/>
+      <c r="W13" s="100"/>
+      <c r="X13" s="119"/>
+      <c r="Y13" s="99" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z13" s="119"/>
+      <c r="AA13" s="95" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB13" s="95"/>
+      <c r="AC13" s="95"/>
+      <c r="AD13" s="95"/>
+      <c r="AE13" s="113" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF13" s="113"/>
+      <c r="AG13" s="113"/>
+      <c r="AH13" s="113"/>
+      <c r="AI13" s="113"/>
+      <c r="AJ13" s="113"/>
+      <c r="AK13" s="113"/>
+      <c r="AL13" s="113"/>
+      <c r="AM13" s="139" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN13" s="140"/>
     </row>
     <row r="14" spans="2:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="126" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
+        <v>57</v>
+      </c>
+      <c r="C14" s="113" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
       <c r="G14" s="15" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H14" s="15"/>
       <c r="L14" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="M14" s="108" t="s">
-        <v>126</v>
-      </c>
-      <c r="N14" s="108"/>
-      <c r="O14" s="108"/>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="151" t="s">
-        <v>222</v>
-      </c>
-      <c r="R14" s="152"/>
-      <c r="S14" s="152"/>
-      <c r="T14" s="152"/>
-      <c r="U14" s="152"/>
-      <c r="V14" s="152"/>
-      <c r="W14" s="153"/>
-      <c r="X14" s="140" t="s">
-        <v>338</v>
-      </c>
-      <c r="Y14" s="141"/>
-      <c r="Z14" s="142"/>
-      <c r="AA14" s="140" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB14" s="141"/>
-      <c r="AC14" s="141"/>
-      <c r="AD14" s="142"/>
-      <c r="AE14" s="126" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF14" s="126"/>
-      <c r="AG14" s="126"/>
-      <c r="AH14" s="126"/>
-      <c r="AI14" s="126"/>
-      <c r="AJ14" s="126"/>
-      <c r="AK14" s="126"/>
-      <c r="AL14" s="126"/>
-      <c r="AM14" s="168"/>
-      <c r="AN14" s="169"/>
+        <v>105</v>
+      </c>
+      <c r="M14" s="95" t="s">
+        <v>113</v>
+      </c>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="99" t="s">
+        <v>170</v>
+      </c>
+      <c r="R14" s="100"/>
+      <c r="S14" s="100"/>
+      <c r="T14" s="100"/>
+      <c r="U14" s="100"/>
+      <c r="V14" s="100"/>
+      <c r="W14" s="119"/>
+      <c r="X14" s="99" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y14" s="100"/>
+      <c r="Z14" s="119"/>
+      <c r="AA14" s="99" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB14" s="100"/>
+      <c r="AC14" s="126" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD14" s="127"/>
+      <c r="AE14" s="127"/>
+      <c r="AF14" s="127"/>
+      <c r="AG14" s="128"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="141"/>
+      <c r="AN14" s="142"/>
     </row>
     <row r="15" spans="2:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="126" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
+        <v>58</v>
+      </c>
+      <c r="C15" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
       <c r="G15" s="15" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H15" s="15"/>
       <c r="L15" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="M15" s="151" t="s">
-        <v>130</v>
-      </c>
-      <c r="N15" s="152"/>
-      <c r="O15" s="152"/>
-      <c r="P15" s="153"/>
-      <c r="Q15" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="R15" s="112" t="s">
-        <v>264</v>
-      </c>
-      <c r="S15" s="132"/>
-      <c r="T15" s="75" t="s">
-        <v>282</v>
-      </c>
-      <c r="U15" s="151" t="s">
-        <v>330</v>
-      </c>
-      <c r="V15" s="152"/>
-      <c r="W15" s="153"/>
-      <c r="X15" s="161" t="s">
+        <v>106</v>
+      </c>
+      <c r="M15" s="99" t="s">
+        <v>117</v>
+      </c>
+      <c r="N15" s="100"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="119"/>
+      <c r="Q15" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="R15" s="99" t="s">
+        <v>212</v>
+      </c>
+      <c r="S15" s="119"/>
+      <c r="T15" s="67" t="s">
+        <v>225</v>
+      </c>
+      <c r="U15" s="99" t="s">
+        <v>238</v>
+      </c>
+      <c r="V15" s="100"/>
+      <c r="W15" s="119"/>
+      <c r="X15" s="95" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y15" s="95"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="99" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB15" s="100"/>
+      <c r="AC15" s="119"/>
+      <c r="AD15" s="126" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE15" s="127"/>
+      <c r="AF15" s="128"/>
+      <c r="AG15" s="126" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH15" s="128"/>
+      <c r="AI15" s="126" t="s">
         <v>143</v>
       </c>
-      <c r="Y15" s="161"/>
-      <c r="Z15" s="126" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA15" s="126"/>
-      <c r="AB15" s="126"/>
-      <c r="AC15" s="126"/>
-      <c r="AD15" s="126"/>
-      <c r="AE15" s="126" t="s">
-        <v>148</v>
-      </c>
-      <c r="AF15" s="126"/>
-      <c r="AG15" s="126"/>
-      <c r="AH15" s="126"/>
-      <c r="AI15" s="140" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ15" s="141"/>
-      <c r="AK15" s="141"/>
-      <c r="AL15" s="142"/>
-      <c r="AM15" s="168"/>
-      <c r="AN15" s="169"/>
+      <c r="AJ15" s="127"/>
+      <c r="AK15" s="127"/>
+      <c r="AL15" s="128"/>
+      <c r="AM15" s="141"/>
+      <c r="AN15" s="142"/>
     </row>
     <row r="16" spans="2:40" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="C16" s="140" t="s">
-        <v>278</v>
-      </c>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="142"/>
+        <v>220</v>
+      </c>
+      <c r="C16" s="126" t="s">
+        <v>221</v>
+      </c>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="128"/>
       <c r="G16" s="15" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="H16" s="15"/>
       <c r="L16" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="M16" s="160" t="s">
-        <v>127</v>
-      </c>
-      <c r="N16" s="132"/>
-      <c r="O16" s="69" t="s">
-        <v>146</v>
-      </c>
-      <c r="P16" s="160" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q16" s="162"/>
-      <c r="R16" s="162"/>
-      <c r="S16" s="162"/>
-      <c r="T16" s="162"/>
-      <c r="U16" s="156" t="s">
-        <v>329</v>
-      </c>
-      <c r="V16" s="157"/>
-      <c r="W16" s="157"/>
-      <c r="X16" s="158"/>
-      <c r="Y16" s="143" t="s">
-        <v>338</v>
-      </c>
-      <c r="Z16" s="144"/>
-      <c r="AA16" s="140" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB16" s="141"/>
-      <c r="AC16" s="142"/>
-      <c r="AD16" s="140" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE16" s="142"/>
-      <c r="AF16" s="126" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG16" s="126"/>
-      <c r="AH16" s="126"/>
-      <c r="AI16" s="126"/>
-      <c r="AJ16" s="126"/>
-      <c r="AK16" s="126"/>
-      <c r="AL16" s="126"/>
-      <c r="AM16" s="168"/>
-      <c r="AN16" s="169"/>
+        <v>107</v>
+      </c>
+      <c r="M16" s="132" t="s">
+        <v>114</v>
+      </c>
+      <c r="N16" s="119"/>
+      <c r="O16" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="P16" s="132" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q16" s="133"/>
+      <c r="R16" s="133"/>
+      <c r="S16" s="133"/>
+      <c r="T16" s="133"/>
+      <c r="U16" s="132" t="s">
+        <v>237</v>
+      </c>
+      <c r="V16" s="133"/>
+      <c r="W16" s="133"/>
+      <c r="X16" s="134"/>
+      <c r="Y16" s="132" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z16" s="134"/>
+      <c r="AA16" s="95" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB16" s="95"/>
+      <c r="AC16" s="127" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD16" s="127"/>
+      <c r="AE16" s="127"/>
+      <c r="AF16" s="127"/>
+      <c r="AG16" s="127"/>
+      <c r="AH16" s="113"/>
+      <c r="AI16" s="113"/>
+      <c r="AJ16" s="113"/>
+      <c r="AK16" s="113"/>
+      <c r="AL16" s="113"/>
+      <c r="AM16" s="141"/>
+      <c r="AN16" s="142"/>
     </row>
     <row r="17" spans="2:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="126" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
+        <v>59</v>
+      </c>
+      <c r="C17" s="113" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
       <c r="G17" s="15" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="H17" s="15"/>
       <c r="L17" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="M17" s="112" t="s">
-        <v>128</v>
-      </c>
-      <c r="N17" s="113"/>
-      <c r="O17" s="113"/>
-      <c r="P17" s="154"/>
-      <c r="Q17" s="74" t="s">
-        <v>258</v>
-      </c>
-      <c r="R17" s="112" t="s">
-        <v>164</v>
-      </c>
-      <c r="S17" s="132"/>
-      <c r="T17" s="145" t="s">
-        <v>281</v>
-      </c>
-      <c r="U17" s="146"/>
-      <c r="V17" s="146"/>
-      <c r="W17" s="146"/>
-      <c r="X17" s="146"/>
-      <c r="Y17" s="146"/>
-      <c r="Z17" s="146"/>
-      <c r="AA17" s="146"/>
-      <c r="AB17" s="147"/>
-      <c r="AC17" s="140"/>
-      <c r="AD17" s="141"/>
-      <c r="AE17" s="141"/>
-      <c r="AF17" s="141"/>
-      <c r="AG17" s="141"/>
-      <c r="AH17" s="141"/>
-      <c r="AI17" s="141"/>
-      <c r="AJ17" s="141"/>
-      <c r="AK17" s="141"/>
-      <c r="AL17" s="142"/>
-      <c r="AM17" s="170"/>
-      <c r="AN17" s="171"/>
+        <v>108</v>
+      </c>
+      <c r="M17" s="99" t="s">
+        <v>115</v>
+      </c>
+      <c r="N17" s="100"/>
+      <c r="O17" s="100"/>
+      <c r="P17" s="130"/>
+      <c r="Q17" s="66" t="s">
+        <v>206</v>
+      </c>
+      <c r="R17" s="99" t="s">
+        <v>147</v>
+      </c>
+      <c r="S17" s="119"/>
+      <c r="T17" s="99" t="s">
+        <v>224</v>
+      </c>
+      <c r="U17" s="100"/>
+      <c r="V17" s="100"/>
+      <c r="W17" s="100"/>
+      <c r="X17" s="100"/>
+      <c r="Y17" s="100"/>
+      <c r="Z17" s="100"/>
+      <c r="AA17" s="100"/>
+      <c r="AB17" s="119"/>
+      <c r="AC17" s="126" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD17" s="127"/>
+      <c r="AE17" s="127"/>
+      <c r="AF17" s="127"/>
+      <c r="AG17" s="127"/>
+      <c r="AH17" s="127"/>
+      <c r="AI17" s="127"/>
+      <c r="AJ17" s="127"/>
+      <c r="AK17" s="127"/>
+      <c r="AL17" s="128"/>
+      <c r="AM17" s="143"/>
+      <c r="AN17" s="144"/>
     </row>
     <row r="18" spans="2:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="C18" s="140" t="s">
-        <v>250</v>
-      </c>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="142"/>
+        <v>197</v>
+      </c>
+      <c r="C18" s="126" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="128"/>
       <c r="G18" s="15" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="H18" s="15"/>
       <c r="L18" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="M18" s="112" t="s">
-        <v>129</v>
-      </c>
-      <c r="N18" s="113"/>
-      <c r="O18" s="132"/>
-      <c r="P18" s="112" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q18" s="132"/>
-      <c r="R18" s="148" t="s">
-        <v>149</v>
-      </c>
-      <c r="S18" s="149"/>
-      <c r="T18" s="150"/>
-      <c r="U18" s="151" t="s">
-        <v>314</v>
-      </c>
-      <c r="V18" s="152"/>
-      <c r="W18" s="152"/>
-      <c r="X18" s="153"/>
-      <c r="Y18" s="140" t="s">
-        <v>332</v>
-      </c>
-      <c r="Z18" s="141"/>
-      <c r="AA18" s="142"/>
-      <c r="AB18" s="78" t="s">
-        <v>313</v>
-      </c>
-      <c r="AC18" s="93"/>
-      <c r="AD18" s="93"/>
-      <c r="AE18" s="93"/>
-      <c r="AF18" s="93"/>
-      <c r="AG18" s="93"/>
-      <c r="AH18" s="93"/>
-      <c r="AI18" s="93"/>
-      <c r="AJ18" s="93"/>
-      <c r="AK18" s="93"/>
-      <c r="AL18" s="94"/>
-      <c r="AM18" s="89"/>
+        <v>109</v>
+      </c>
+      <c r="M18" s="99" t="s">
+        <v>116</v>
+      </c>
+      <c r="N18" s="100"/>
+      <c r="O18" s="119"/>
+      <c r="P18" s="99" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q18" s="119"/>
+      <c r="R18" s="149" t="s">
+        <v>134</v>
+      </c>
+      <c r="S18" s="150"/>
+      <c r="T18" s="151"/>
+      <c r="U18" s="99" t="s">
+        <v>230</v>
+      </c>
+      <c r="V18" s="100"/>
+      <c r="W18" s="100"/>
+      <c r="X18" s="119"/>
+      <c r="Y18" s="99" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z18" s="100"/>
+      <c r="AA18" s="119"/>
+      <c r="AB18" s="129"/>
+      <c r="AC18" s="129"/>
+      <c r="AD18" s="129"/>
+      <c r="AE18" s="129"/>
+      <c r="AF18" s="127" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG18" s="127"/>
+      <c r="AH18" s="127"/>
+      <c r="AI18" s="127"/>
+      <c r="AJ18" s="127"/>
+      <c r="AK18" s="127"/>
+      <c r="AL18" s="128"/>
+      <c r="AM18" s="76"/>
       <c r="AN18" s="30"/>
     </row>
     <row r="19" spans="2:40" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="C19" s="140" t="s">
-        <v>275</v>
-      </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="142"/>
+        <v>217</v>
+      </c>
+      <c r="C19" s="126" t="s">
+        <v>218</v>
+      </c>
+      <c r="D19" s="127"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="128"/>
       <c r="G19" s="15" t="s">
-        <v>276</v>
+        <v>219</v>
       </c>
       <c r="H19" s="15"/>
       <c r="L19" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="M19" s="112" t="s">
-        <v>224</v>
-      </c>
-      <c r="N19" s="113"/>
-      <c r="O19" s="113"/>
+        <v>110</v>
+      </c>
+      <c r="M19" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="N19" s="100"/>
+      <c r="O19" s="100"/>
       <c r="P19" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q19" s="172" t="s">
-        <v>272</v>
-      </c>
-      <c r="R19" s="173"/>
-      <c r="S19" s="174"/>
-      <c r="T19" s="95" t="s">
-        <v>271</v>
-      </c>
-      <c r="U19" s="151" t="s">
-        <v>286</v>
-      </c>
-      <c r="V19" s="152"/>
-      <c r="W19" s="152"/>
-      <c r="X19" s="153"/>
-      <c r="Y19" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z19" s="141"/>
-      <c r="AA19" s="141"/>
-      <c r="AB19" s="141"/>
-      <c r="AC19" s="141"/>
-      <c r="AD19" s="141"/>
-      <c r="AE19" s="141"/>
-      <c r="AF19" s="141"/>
-      <c r="AG19" s="142"/>
-      <c r="AH19" s="140" t="s">
-        <v>157</v>
-      </c>
-      <c r="AI19" s="141"/>
-      <c r="AJ19" s="141"/>
-      <c r="AK19" s="141"/>
-      <c r="AL19" s="141"/>
-      <c r="AM19" s="126" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN19" s="126"/>
+        <v>209</v>
+      </c>
+      <c r="Q19" s="145" t="s">
+        <v>216</v>
+      </c>
+      <c r="R19" s="146"/>
+      <c r="S19" s="147"/>
+      <c r="T19" s="79" t="s">
+        <v>215</v>
+      </c>
+      <c r="U19" s="99" t="s">
+        <v>229</v>
+      </c>
+      <c r="V19" s="100"/>
+      <c r="W19" s="100"/>
+      <c r="X19" s="119"/>
+      <c r="Y19" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z19" s="95"/>
+      <c r="AA19" s="95"/>
+      <c r="AB19" s="95"/>
+      <c r="AC19" s="99" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD19" s="100"/>
+      <c r="AE19" s="148" t="s">
+        <v>275</v>
+      </c>
+      <c r="AF19" s="148"/>
+      <c r="AG19" s="148"/>
+      <c r="AH19" s="126" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI19" s="127"/>
+      <c r="AJ19" s="127"/>
+      <c r="AK19" s="127"/>
+      <c r="AL19" s="127"/>
+      <c r="AM19" s="113" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN19" s="113"/>
     </row>
     <row r="20" spans="2:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="36"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="L20" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="M20" s="112" t="s">
-        <v>132</v>
-      </c>
-      <c r="N20" s="113"/>
-      <c r="O20" s="132"/>
-      <c r="P20" s="112" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q20" s="113"/>
-      <c r="R20" s="113"/>
-      <c r="S20" s="113"/>
-      <c r="T20" s="132"/>
-      <c r="U20" s="151" t="s">
-        <v>285</v>
-      </c>
-      <c r="V20" s="152"/>
-      <c r="W20" s="152"/>
-      <c r="X20" s="152"/>
-      <c r="Y20" s="152"/>
-      <c r="Z20" s="153"/>
-      <c r="AA20" s="140" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB20" s="141"/>
-      <c r="AC20" s="141"/>
-      <c r="AD20" s="141"/>
-      <c r="AE20" s="141"/>
-      <c r="AF20" s="141"/>
-      <c r="AG20" s="141"/>
-      <c r="AH20" s="141"/>
-      <c r="AI20" s="141"/>
-      <c r="AJ20" s="141"/>
-      <c r="AK20" s="141"/>
-      <c r="AL20" s="142"/>
-      <c r="AM20" s="126"/>
-      <c r="AN20" s="126"/>
+        <v>111</v>
+      </c>
+      <c r="M20" s="99" t="s">
+        <v>119</v>
+      </c>
+      <c r="N20" s="100"/>
+      <c r="O20" s="119"/>
+      <c r="P20" s="99" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q20" s="100"/>
+      <c r="R20" s="100"/>
+      <c r="S20" s="100"/>
+      <c r="T20" s="119"/>
+      <c r="U20" s="99" t="s">
+        <v>228</v>
+      </c>
+      <c r="V20" s="100"/>
+      <c r="W20" s="100"/>
+      <c r="X20" s="100"/>
+      <c r="Y20" s="100"/>
+      <c r="Z20" s="119"/>
+      <c r="AA20" s="126" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB20" s="127"/>
+      <c r="AC20" s="127"/>
+      <c r="AD20" s="127"/>
+      <c r="AE20" s="127"/>
+      <c r="AF20" s="127"/>
+      <c r="AG20" s="127"/>
+      <c r="AH20" s="127"/>
+      <c r="AI20" s="127"/>
+      <c r="AJ20" s="127"/>
+      <c r="AK20" s="127"/>
+      <c r="AL20" s="128"/>
+      <c r="AM20" s="113"/>
+      <c r="AN20" s="113"/>
     </row>
     <row r="21" spans="2:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="P21" s="140" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q21" s="141"/>
-      <c r="R21" s="141"/>
-      <c r="S21" s="141"/>
-      <c r="T21" s="141"/>
-      <c r="U21" s="141"/>
-      <c r="V21" s="141"/>
-      <c r="W21" s="141"/>
-      <c r="X21" s="141"/>
-      <c r="Y21" s="141"/>
-      <c r="Z21" s="141"/>
-      <c r="AA21" s="141"/>
-      <c r="AB21" s="141"/>
-      <c r="AC21" s="141"/>
-      <c r="AD21" s="141"/>
-      <c r="AE21" s="141"/>
-      <c r="AF21" s="141"/>
-      <c r="AG21" s="141"/>
-      <c r="AH21" s="141"/>
-      <c r="AI21" s="141"/>
-      <c r="AJ21" s="141"/>
-      <c r="AK21" s="141"/>
-      <c r="AL21" s="142"/>
+        <v>34</v>
+      </c>
+      <c r="P21" s="126" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q21" s="127"/>
+      <c r="R21" s="127"/>
+      <c r="S21" s="127"/>
+      <c r="T21" s="127"/>
+      <c r="U21" s="127"/>
+      <c r="V21" s="127"/>
+      <c r="W21" s="127"/>
+      <c r="X21" s="127"/>
+      <c r="Y21" s="127"/>
+      <c r="Z21" s="127"/>
+      <c r="AA21" s="127"/>
+      <c r="AB21" s="127"/>
+      <c r="AC21" s="127"/>
+      <c r="AD21" s="127"/>
+      <c r="AE21" s="127"/>
+      <c r="AF21" s="127"/>
+      <c r="AG21" s="127"/>
+      <c r="AH21" s="127"/>
+      <c r="AI21" s="127"/>
+      <c r="AJ21" s="127"/>
+      <c r="AK21" s="127"/>
+      <c r="AL21" s="128"/>
     </row>
     <row r="22" spans="2:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="R22" t="s">
-        <v>259</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="2:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="V23" t="s">
-        <v>336</v>
+        <v>244</v>
       </c>
       <c r="Z23" t="s">
-        <v>337</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="2:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S24" t="s">
-        <v>327</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B25" s="34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B26" s="34" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="AA26" t="s">
-        <v>341</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B27" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="131" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="131"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="155" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="155"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="155"/>
-      <c r="G27" s="35" t="s">
+      <c r="H27" s="35" t="s">
         <v>38</v>
-      </c>
-      <c r="H27" s="35" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="28" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B28" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="140"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="142"/>
+        <v>86</v>
+      </c>
+      <c r="C28" s="126"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="128"/>
       <c r="G28" s="37" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="H28" s="15"/>
     </row>
     <row r="29" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B29" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="140"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="142"/>
+        <v>87</v>
+      </c>
+      <c r="C29" s="126"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="128"/>
       <c r="G29" s="37" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="H29" s="15"/>
       <c r="X29" t="s">
-        <v>339</v>
+        <v>247</v>
       </c>
       <c r="Y29" s="10" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B30" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="140"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="142"/>
+        <v>88</v>
+      </c>
+      <c r="C30" s="126"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="128"/>
       <c r="G30" s="37" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="H30" s="15"/>
     </row>
     <row r="31" spans="2:40" x14ac:dyDescent="0.3">
       <c r="B31" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="140"/>
-      <c r="D31" s="141"/>
-      <c r="E31" s="141"/>
-      <c r="F31" s="142"/>
+        <v>89</v>
+      </c>
+      <c r="C31" s="126"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="128"/>
       <c r="G31" s="37" t="s">
-        <v>232</v>
+        <v>180</v>
       </c>
       <c r="H31" s="15"/>
     </row>
     <row r="32" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B32" s="59" t="s">
-        <v>238</v>
-      </c>
-      <c r="C32" s="140"/>
-      <c r="D32" s="141"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="142"/>
+      <c r="B32" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" s="126"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="128"/>
       <c r="G32" s="15" t="s">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="H32" s="15"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="36"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
       <c r="G33" s="36"/>
       <c r="H33" s="36"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="131" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="131"/>
+      <c r="E35" s="131"/>
+      <c r="F35" s="131"/>
+      <c r="G35" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="155" t="s">
+      <c r="H35" s="35" t="s">
         <v>41</v>
-      </c>
-      <c r="D35" s="155"/>
-      <c r="E35" s="155"/>
-      <c r="F35" s="155"/>
-      <c r="G35" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" s="35" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="140" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="142"/>
+        <v>81</v>
+      </c>
+      <c r="C36" s="126" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="127"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="128"/>
       <c r="G36" s="10" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H36" s="15"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" s="140" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="141"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="142"/>
+        <v>82</v>
+      </c>
+      <c r="C37" s="126" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="127"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="128"/>
       <c r="G37" s="10" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H37" s="15"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="C38" s="140" t="s">
-        <v>237</v>
-      </c>
-      <c r="D38" s="141"/>
-      <c r="E38" s="141"/>
-      <c r="F38" s="142"/>
+        <v>183</v>
+      </c>
+      <c r="C38" s="126" t="s">
+        <v>185</v>
+      </c>
+      <c r="D38" s="127"/>
+      <c r="E38" s="127"/>
+      <c r="F38" s="128"/>
       <c r="G38" s="10" t="s">
-        <v>236</v>
+        <v>184</v>
       </c>
       <c r="H38" s="15"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="30"/>
-      <c r="C39" s="140"/>
-      <c r="D39" s="141"/>
-      <c r="E39" s="141"/>
-      <c r="F39" s="142"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="128"/>
       <c r="G39" s="10"/>
       <c r="H39" s="15"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="155" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="131" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="131"/>
+      <c r="E42" s="131"/>
+      <c r="F42" s="131"/>
+      <c r="G42" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="155"/>
-      <c r="E42" s="155"/>
-      <c r="F42" s="155"/>
-      <c r="G42" s="35" t="s">
-        <v>33</v>
-      </c>
       <c r="H42" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="140" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="141"/>
-      <c r="E43" s="141"/>
-      <c r="F43" s="142"/>
+        <v>68</v>
+      </c>
+      <c r="C43" s="126" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="127"/>
+      <c r="E43" s="127"/>
+      <c r="F43" s="128"/>
       <c r="G43" s="37" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H43" s="15"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="140" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="141"/>
-      <c r="E44" s="141"/>
-      <c r="F44" s="142"/>
+        <v>71</v>
+      </c>
+      <c r="C44" s="126" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="127"/>
+      <c r="E44" s="127"/>
+      <c r="F44" s="128"/>
       <c r="G44" s="37" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="H44" s="15"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="30"/>
-      <c r="C45" s="140"/>
-      <c r="D45" s="141"/>
-      <c r="E45" s="141"/>
-      <c r="F45" s="142"/>
+      <c r="C45" s="126"/>
+      <c r="D45" s="127"/>
+      <c r="E45" s="127"/>
+      <c r="F45" s="128"/>
       <c r="G45" s="37"/>
       <c r="H45" s="15"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="30"/>
-      <c r="C46" s="140"/>
-      <c r="D46" s="141"/>
-      <c r="E46" s="141"/>
-      <c r="F46" s="142"/>
+      <c r="C46" s="126"/>
+      <c r="D46" s="127"/>
+      <c r="E46" s="127"/>
+      <c r="F46" s="128"/>
       <c r="G46" s="37"/>
       <c r="H46" s="15"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="34" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="155" t="s">
+      <c r="D49" s="131"/>
+      <c r="E49" s="131"/>
+      <c r="F49" s="131"/>
+      <c r="G49" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="155"/>
-      <c r="E49" s="155"/>
-      <c r="F49" s="155"/>
-      <c r="G49" s="35" t="s">
+      <c r="H49" s="35" t="s">
         <v>33</v>
-      </c>
-      <c r="H49" s="35" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C50" s="126" t="s">
-        <v>66</v>
-      </c>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="126"/>
+        <v>75</v>
+      </c>
+      <c r="C50" s="113" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="113"/>
+      <c r="E50" s="113"/>
+      <c r="F50" s="113"/>
       <c r="G50" s="15" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H50" s="15"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="126" t="s">
-        <v>91</v>
-      </c>
-      <c r="D51" s="126"/>
-      <c r="E51" s="126"/>
-      <c r="F51" s="126"/>
+        <v>76</v>
+      </c>
+      <c r="C51" s="113" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="113"/>
+      <c r="E51" s="113"/>
+      <c r="F51" s="113"/>
       <c r="G51" s="15" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="H51" s="15"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="34" t="s">
-        <v>227</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="60" t="s">
+      <c r="B54" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="155" t="s">
+      <c r="D54" s="131"/>
+      <c r="E54" s="131"/>
+      <c r="F54" s="131"/>
+      <c r="G54" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="155"/>
-      <c r="E54" s="155"/>
-      <c r="F54" s="155"/>
-      <c r="G54" s="60" t="s">
+      <c r="H54" s="52" t="s">
         <v>33</v>
-      </c>
-      <c r="H54" s="60" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="C55" s="126"/>
-      <c r="D55" s="126"/>
-      <c r="E55" s="126"/>
-      <c r="F55" s="126"/>
+        <v>178</v>
+      </c>
+      <c r="C55" s="113"/>
+      <c r="D55" s="113"/>
+      <c r="E55" s="113"/>
+      <c r="F55" s="113"/>
       <c r="G55" s="15" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
       <c r="H55" s="15"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C56" s="126"/>
-      <c r="D56" s="126"/>
-      <c r="E56" s="126"/>
-      <c r="F56" s="126"/>
+        <v>177</v>
+      </c>
+      <c r="C56" s="113"/>
+      <c r="D56" s="113"/>
+      <c r="E56" s="113"/>
+      <c r="F56" s="113"/>
       <c r="G56" s="15" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="H56" s="15"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C57" s="126"/>
-      <c r="D57" s="126"/>
-      <c r="E57" s="126"/>
-      <c r="F57" s="126"/>
+        <v>179</v>
+      </c>
+      <c r="C57" s="113"/>
+      <c r="D57" s="113"/>
+      <c r="E57" s="113"/>
+      <c r="F57" s="113"/>
       <c r="G57" s="15" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
       <c r="H57" s="15"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C58" s="126"/>
-      <c r="D58" s="126"/>
-      <c r="E58" s="126"/>
-      <c r="F58" s="126"/>
+        <v>181</v>
+      </c>
+      <c r="C58" s="113"/>
+      <c r="D58" s="113"/>
+      <c r="E58" s="113"/>
+      <c r="F58" s="113"/>
       <c r="G58" s="15" t="s">
-        <v>234</v>
+        <v>182</v>
       </c>
       <c r="H58" s="15"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="C59" s="140"/>
-      <c r="D59" s="141"/>
-      <c r="E59" s="141"/>
-      <c r="F59" s="142"/>
+        <v>201</v>
+      </c>
+      <c r="C59" s="126"/>
+      <c r="D59" s="127"/>
+      <c r="E59" s="127"/>
+      <c r="F59" s="128"/>
       <c r="G59" s="15" t="s">
-        <v>255</v>
+        <v>203</v>
       </c>
       <c r="H59" s="15"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="15"/>
-      <c r="C60" s="140"/>
-      <c r="D60" s="141"/>
-      <c r="E60" s="141"/>
-      <c r="F60" s="142"/>
+      <c r="C60" s="126"/>
+      <c r="D60" s="127"/>
+      <c r="E60" s="127"/>
+      <c r="F60" s="128"/>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="87">
     <mergeCell ref="C59:F59"/>
     <mergeCell ref="C60:F60"/>
     <mergeCell ref="P21:AL21"/>
@@ -6299,32 +6216,30 @@
     <mergeCell ref="C56:F56"/>
     <mergeCell ref="C28:F28"/>
     <mergeCell ref="C55:F55"/>
-    <mergeCell ref="AM19:AN20"/>
-    <mergeCell ref="AH19:AL19"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="U19:X19"/>
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="M20:O20"/>
     <mergeCell ref="M19:O19"/>
     <mergeCell ref="C19:F19"/>
-    <mergeCell ref="Y19:AG19"/>
-    <mergeCell ref="C45:F45"/>
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="U20:Z20"/>
     <mergeCell ref="P20:T20"/>
+    <mergeCell ref="AM19:AN20"/>
+    <mergeCell ref="AH19:AL19"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="Y19:AB19"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AE19:AG19"/>
     <mergeCell ref="C54:F54"/>
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="C38:F38"/>
     <mergeCell ref="AA10:AG10"/>
-    <mergeCell ref="Z15:AD15"/>
     <mergeCell ref="AE13:AL13"/>
     <mergeCell ref="AH10:AN10"/>
-    <mergeCell ref="AE14:AL14"/>
-    <mergeCell ref="AE15:AH15"/>
     <mergeCell ref="AM13:AN17"/>
     <mergeCell ref="AA13:AD13"/>
     <mergeCell ref="AI15:AL15"/>
@@ -6333,16 +6248,15 @@
     <mergeCell ref="C44:F44"/>
     <mergeCell ref="M10:Q10"/>
     <mergeCell ref="M15:P15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="Q14:W14"/>
-    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="C45:F45"/>
     <mergeCell ref="R10:Z10"/>
     <mergeCell ref="U15:W15"/>
     <mergeCell ref="M13:Q13"/>
     <mergeCell ref="X15:Y15"/>
     <mergeCell ref="P16:T16"/>
     <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y16:Z16"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="R13:X13"/>
     <mergeCell ref="P18:Q18"/>
@@ -6354,1858 +6268,28 @@
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="U16:X16"/>
-    <mergeCell ref="AA16:AC16"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="Q14:W14"/>
+    <mergeCell ref="M14:P14"/>
     <mergeCell ref="Y18:AA18"/>
     <mergeCell ref="T17:AB17"/>
     <mergeCell ref="AC17:AL17"/>
     <mergeCell ref="R18:T18"/>
     <mergeCell ref="U18:X18"/>
-    <mergeCell ref="AF16:AL16"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="AA14:AD14"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="AF18:AL18"/>
+    <mergeCell ref="AA15:AC15"/>
+    <mergeCell ref="AD15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC14:AG14"/>
+    <mergeCell ref="AC16:AG16"/>
+    <mergeCell ref="AH16:AL16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S50"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16:N16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="20.875" customWidth="1"/>
-    <col min="7" max="7" width="24.5" customWidth="1"/>
-    <col min="13" max="13" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="20.375" customWidth="1"/>
-    <col min="18" max="19" width="23.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:19" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="I3" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="26"/>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>290</v>
-      </c>
-      <c r="L10" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" s="176" t="s">
-        <v>77</v>
-      </c>
-      <c r="N10" s="177"/>
-      <c r="O10" s="177"/>
-      <c r="P10" s="177"/>
-      <c r="Q10" s="177"/>
-      <c r="R10" s="177"/>
-      <c r="S10" s="178"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="L11" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="M11" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="N11" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="O11" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="P11" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q11" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="R11" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="S11" s="54" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="155" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" s="39">
-        <v>3</v>
-      </c>
-      <c r="N12" s="22">
-        <v>4</v>
-      </c>
-      <c r="O12" s="22">
-        <v>5</v>
-      </c>
-      <c r="P12" s="22">
-        <v>6</v>
-      </c>
-      <c r="Q12" s="39">
-        <v>7</v>
-      </c>
-      <c r="R12" s="22">
-        <v>8</v>
-      </c>
-      <c r="S12" s="22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="C13" s="126" t="s">
-        <v>292</v>
-      </c>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="L13" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="M13" s="126" t="s">
-        <v>140</v>
-      </c>
-      <c r="N13" s="126"/>
-      <c r="O13" s="126"/>
-      <c r="P13" s="126"/>
-      <c r="Q13" s="126"/>
-      <c r="R13" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="S13" s="44" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B14" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="C14" s="126" t="s">
-        <v>294</v>
-      </c>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="L14" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="M14" s="140" t="s">
-        <v>165</v>
-      </c>
-      <c r="N14" s="141"/>
-      <c r="O14" s="141"/>
-      <c r="P14" s="142"/>
-      <c r="Q14" s="140" t="s">
-        <v>169</v>
-      </c>
-      <c r="R14" s="141"/>
-      <c r="S14" s="142"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="15"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="L15" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="M15" s="87" t="s">
-        <v>282</v>
-      </c>
-      <c r="N15" s="126" t="s">
-        <v>301</v>
-      </c>
-      <c r="O15" s="126"/>
-      <c r="P15" s="126"/>
-      <c r="Q15" s="126" t="s">
-        <v>170</v>
-      </c>
-      <c r="R15" s="126"/>
-      <c r="S15" s="48" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="15"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="L16" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="M16" s="175" t="s">
-        <v>267</v>
-      </c>
-      <c r="N16" s="126"/>
-      <c r="O16" s="126" t="s">
-        <v>172</v>
-      </c>
-      <c r="P16" s="126"/>
-      <c r="Q16" s="126"/>
-      <c r="R16" s="126"/>
-      <c r="S16" s="79" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="L17" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="M17" s="140" t="s">
-        <v>265</v>
-      </c>
-      <c r="N17" s="141"/>
-      <c r="O17" s="141"/>
-      <c r="P17" s="142"/>
-      <c r="Q17" s="140" t="s">
-        <v>166</v>
-      </c>
-      <c r="R17" s="142"/>
-      <c r="S17" s="44" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="L18" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="M18" s="140" t="s">
-        <v>266</v>
-      </c>
-      <c r="N18" s="141"/>
-      <c r="O18" s="141"/>
-      <c r="P18" s="126" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q18" s="126"/>
-      <c r="R18" s="126" t="s">
-        <v>316</v>
-      </c>
-      <c r="S18" s="126"/>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B19" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="M19" s="78" t="s">
-        <v>273</v>
-      </c>
-      <c r="N19" s="140" t="s">
-        <v>310</v>
-      </c>
-      <c r="O19" s="141"/>
-      <c r="P19" s="141"/>
-      <c r="Q19" s="142"/>
-      <c r="R19" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="S19" s="142"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="M20" s="140" t="s">
-        <v>311</v>
-      </c>
-      <c r="N20" s="141"/>
-      <c r="O20" s="141"/>
-      <c r="P20" s="141"/>
-      <c r="Q20" s="141"/>
-      <c r="R20" s="141"/>
-      <c r="S20" s="142"/>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>78</v>
-      </c>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B23" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B24" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B25" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="155" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="155"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" s="35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B26" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="C26" s="140"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B27" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="C27" s="140"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="H27" s="15"/>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B28" s="30" t="s">
-        <v>317</v>
-      </c>
-      <c r="C28" s="140"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="H28" s="15"/>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B29" s="30"/>
-      <c r="C29" s="140"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="15"/>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B30" s="30"/>
-      <c r="C30" s="140"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="15"/>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B32" s="40" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="155" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="155"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="C34" s="140"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="37" t="s">
-        <v>304</v>
-      </c>
-      <c r="H34" s="15"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="C35" s="140"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="H35" s="15"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="30"/>
-      <c r="C36" s="140"/>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="142"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="15"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="30"/>
-      <c r="C37" s="140"/>
-      <c r="D37" s="141"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="142"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="15"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="155" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="155"/>
-      <c r="E40" s="155"/>
-      <c r="F40" s="155"/>
-      <c r="G40" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="H40" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="C41" s="140" t="s">
-        <v>320</v>
-      </c>
-      <c r="D41" s="141"/>
-      <c r="E41" s="141"/>
-      <c r="F41" s="142"/>
-      <c r="G41" s="37" t="s">
-        <v>321</v>
-      </c>
-      <c r="H41" s="15"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="40" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="155" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="155"/>
-      <c r="E44" s="155"/>
-      <c r="F44" s="155"/>
-      <c r="G44" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="H44" s="86" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="85" t="s">
-        <v>308</v>
-      </c>
-      <c r="C45" s="140"/>
-      <c r="D45" s="141"/>
-      <c r="E45" s="141"/>
-      <c r="F45" s="142"/>
-      <c r="G45" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="H45" s="15"/>
-    </row>
-    <row r="46" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="85" t="s">
-        <v>309</v>
-      </c>
-      <c r="C46" s="140"/>
-      <c r="D46" s="141"/>
-      <c r="E46" s="141"/>
-      <c r="F46" s="142"/>
-      <c r="G46" s="37" t="s">
-        <v>322</v>
-      </c>
-      <c r="H46" s="15"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="85"/>
-      <c r="C47" s="140"/>
-      <c r="D47" s="141"/>
-      <c r="E47" s="141"/>
-      <c r="F47" s="142"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="15"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="85"/>
-      <c r="C48" s="140"/>
-      <c r="D48" s="141"/>
-      <c r="E48" s="141"/>
-      <c r="F48" s="142"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="15"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M20:S20"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C48:F48"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S53"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="20.875" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="13" max="19" width="19.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:19" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="I3" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="26"/>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" s="179" t="s">
-        <v>77</v>
-      </c>
-      <c r="N10" s="177"/>
-      <c r="O10" s="177"/>
-      <c r="P10" s="177"/>
-      <c r="Q10" s="177"/>
-      <c r="R10" s="177"/>
-      <c r="S10" s="178"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="L11" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="M11" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="N11" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="O11" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="P11" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q11" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="R11" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="S11" s="30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="155" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" s="39">
-        <v>10</v>
-      </c>
-      <c r="N12" s="22">
-        <v>11</v>
-      </c>
-      <c r="O12" s="22">
-        <v>12</v>
-      </c>
-      <c r="P12" s="22">
-        <v>13</v>
-      </c>
-      <c r="Q12" s="39">
-        <v>14</v>
-      </c>
-      <c r="R12" s="22">
-        <v>15</v>
-      </c>
-      <c r="S12" s="22">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="L13" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="M13" s="140" t="s">
-        <v>174</v>
-      </c>
-      <c r="N13" s="141"/>
-      <c r="O13" s="141"/>
-      <c r="P13" s="142"/>
-      <c r="Q13" s="140" t="s">
-        <v>175</v>
-      </c>
-      <c r="R13" s="141"/>
-      <c r="S13" s="142"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B14" s="15"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="L14" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="M14" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="N14" s="141"/>
-      <c r="O14" s="141"/>
-      <c r="P14" s="142"/>
-      <c r="Q14" s="140" t="s">
-        <v>177</v>
-      </c>
-      <c r="R14" s="141"/>
-      <c r="S14" s="142"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="15"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="L15" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="M15" s="140" t="s">
-        <v>178</v>
-      </c>
-      <c r="N15" s="141"/>
-      <c r="O15" s="141"/>
-      <c r="P15" s="142"/>
-      <c r="Q15" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="R15" s="141"/>
-      <c r="S15" s="142"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B16" s="15"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="L16" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="M16" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="N16" s="141"/>
-      <c r="O16" s="142"/>
-      <c r="P16" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q16" s="142"/>
-      <c r="R16" s="140" t="s">
-        <v>175</v>
-      </c>
-      <c r="S16" s="142"/>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="L17" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="M17" s="140" t="s">
-        <v>182</v>
-      </c>
-      <c r="N17" s="141"/>
-      <c r="O17" s="141"/>
-      <c r="P17" s="142"/>
-      <c r="Q17" s="140" t="s">
-        <v>183</v>
-      </c>
-      <c r="R17" s="141"/>
-      <c r="S17" s="142"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="L18" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="M18" s="140" t="s">
-        <v>184</v>
-      </c>
-      <c r="N18" s="141"/>
-      <c r="O18" s="141"/>
-      <c r="P18" s="142"/>
-      <c r="Q18" s="140" t="s">
-        <v>185</v>
-      </c>
-      <c r="R18" s="141"/>
-      <c r="S18" s="142"/>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B19" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="M19" s="140" t="s">
-        <v>186</v>
-      </c>
-      <c r="N19" s="141"/>
-      <c r="O19" s="141"/>
-      <c r="P19" s="141"/>
-      <c r="Q19" s="141"/>
-      <c r="R19" s="141"/>
-      <c r="S19" s="142"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="M20" s="140" t="s">
-        <v>187</v>
-      </c>
-      <c r="N20" s="141"/>
-      <c r="O20" s="141"/>
-      <c r="P20" s="142"/>
-      <c r="Q20" s="140" t="s">
-        <v>188</v>
-      </c>
-      <c r="R20" s="141"/>
-      <c r="S20" s="142"/>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>78</v>
-      </c>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B23" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B24" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B25" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="155" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="155"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" s="35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B26" s="30"/>
-      <c r="C26" s="140"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B27" s="30"/>
-      <c r="C27" s="140"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="15"/>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B28" s="30"/>
-      <c r="C28" s="140"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="15"/>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B29" s="30"/>
-      <c r="C29" s="140"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="15"/>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B30" s="30"/>
-      <c r="C30" s="140"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="15"/>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B32" s="40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="155" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="155"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="30"/>
-      <c r="C34" s="140"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="15"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="30"/>
-      <c r="C35" s="140"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="15"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="30"/>
-      <c r="C36" s="140"/>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="142"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="15"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="30"/>
-      <c r="C37" s="140"/>
-      <c r="D37" s="141"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="142"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="15"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="155" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="155"/>
-      <c r="E40" s="155"/>
-      <c r="F40" s="155"/>
-      <c r="G40" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="H40" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="30"/>
-      <c r="C41" s="140"/>
-      <c r="D41" s="141"/>
-      <c r="E41" s="141"/>
-      <c r="F41" s="142"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="15"/>
-    </row>
-    <row r="42" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="30"/>
-      <c r="C42" s="140"/>
-      <c r="D42" s="141"/>
-      <c r="E42" s="141"/>
-      <c r="F42" s="142"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="15"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="30"/>
-      <c r="C43" s="140"/>
-      <c r="D43" s="141"/>
-      <c r="E43" s="141"/>
-      <c r="F43" s="142"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="15"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="30"/>
-      <c r="C44" s="140"/>
-      <c r="D44" s="141"/>
-      <c r="E44" s="141"/>
-      <c r="F44" s="142"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="15"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="M19:S19"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="Q18:S18"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S53"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="20.875" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="13" max="19" width="19.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:19" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="I3" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="26"/>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" s="179" t="s">
-        <v>77</v>
-      </c>
-      <c r="N10" s="177"/>
-      <c r="O10" s="177"/>
-      <c r="P10" s="177"/>
-      <c r="Q10" s="177"/>
-      <c r="R10" s="177"/>
-      <c r="S10" s="178"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="L11" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="M11" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="N11" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="O11" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="P11" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q11" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="R11" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="S11" s="30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="155" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" s="39">
-        <v>17</v>
-      </c>
-      <c r="N12" s="22">
-        <v>18</v>
-      </c>
-      <c r="O12" s="22">
-        <v>19</v>
-      </c>
-      <c r="P12" s="22">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="39">
-        <v>21</v>
-      </c>
-      <c r="R12" s="22">
-        <v>22</v>
-      </c>
-      <c r="S12" s="22">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="L13" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="M13" s="140" t="s">
-        <v>189</v>
-      </c>
-      <c r="N13" s="141"/>
-      <c r="O13" s="141"/>
-      <c r="P13" s="141"/>
-      <c r="Q13" s="142"/>
-      <c r="R13" s="166" t="s">
-        <v>198</v>
-      </c>
-      <c r="S13" s="167"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B14" s="15"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="L14" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="M14" s="140" t="s">
-        <v>190</v>
-      </c>
-      <c r="N14" s="141"/>
-      <c r="O14" s="141"/>
-      <c r="P14" s="141"/>
-      <c r="Q14" s="142"/>
-      <c r="R14" s="168"/>
-      <c r="S14" s="169"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="15"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="L15" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="M15" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="N15" s="140" t="s">
-        <v>192</v>
-      </c>
-      <c r="O15" s="141"/>
-      <c r="P15" s="141"/>
-      <c r="Q15" s="142"/>
-      <c r="R15" s="168"/>
-      <c r="S15" s="169"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B16" s="15"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="L16" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="M16" s="140" t="s">
-        <v>193</v>
-      </c>
-      <c r="N16" s="141"/>
-      <c r="O16" s="141"/>
-      <c r="P16" s="141"/>
-      <c r="Q16" s="142"/>
-      <c r="R16" s="168"/>
-      <c r="S16" s="169"/>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="L17" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="M17" s="140" t="s">
-        <v>194</v>
-      </c>
-      <c r="N17" s="141"/>
-      <c r="O17" s="141"/>
-      <c r="P17" s="141"/>
-      <c r="Q17" s="142"/>
-      <c r="R17" s="170"/>
-      <c r="S17" s="171"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="L18" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="M18" s="140" t="s">
-        <v>195</v>
-      </c>
-      <c r="N18" s="141"/>
-      <c r="O18" s="141"/>
-      <c r="P18" s="141"/>
-      <c r="Q18" s="141"/>
-      <c r="R18" s="142"/>
-      <c r="S18" s="15"/>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B19" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="M19" s="140" t="s">
-        <v>196</v>
-      </c>
-      <c r="N19" s="141"/>
-      <c r="O19" s="141"/>
-      <c r="P19" s="141"/>
-      <c r="Q19" s="142"/>
-      <c r="R19" s="166" t="s">
-        <v>199</v>
-      </c>
-      <c r="S19" s="167"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="M20" s="140" t="s">
-        <v>197</v>
-      </c>
-      <c r="N20" s="141"/>
-      <c r="O20" s="141"/>
-      <c r="P20" s="141"/>
-      <c r="Q20" s="142"/>
-      <c r="R20" s="170"/>
-      <c r="S20" s="171"/>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>78</v>
-      </c>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B23" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B24" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B25" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="155" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="155"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" s="35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B26" s="30"/>
-      <c r="C26" s="140"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B27" s="30"/>
-      <c r="C27" s="140"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="15"/>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B28" s="30"/>
-      <c r="C28" s="140"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="15"/>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B29" s="30"/>
-      <c r="C29" s="140"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="15"/>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B30" s="30"/>
-      <c r="C30" s="140"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="15"/>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B32" s="40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="155" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="155"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="30"/>
-      <c r="C34" s="140"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="15"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="30"/>
-      <c r="C35" s="140"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="15"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="30"/>
-      <c r="C36" s="140"/>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="142"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="15"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="30"/>
-      <c r="C37" s="140"/>
-      <c r="D37" s="141"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="142"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="15"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="155" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="155"/>
-      <c r="E40" s="155"/>
-      <c r="F40" s="155"/>
-      <c r="G40" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="H40" s="35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="30"/>
-      <c r="C41" s="140"/>
-      <c r="D41" s="141"/>
-      <c r="E41" s="141"/>
-      <c r="F41" s="142"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="15"/>
-    </row>
-    <row r="42" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="30"/>
-      <c r="C42" s="140"/>
-      <c r="D42" s="141"/>
-      <c r="E42" s="141"/>
-      <c r="F42" s="142"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="15"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="30"/>
-      <c r="C43" s="140"/>
-      <c r="D43" s="141"/>
-      <c r="E43" s="141"/>
-      <c r="F43" s="142"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="15"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="30"/>
-      <c r="C44" s="140"/>
-      <c r="D44" s="141"/>
-      <c r="E44" s="141"/>
-      <c r="F44" s="142"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="15"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="R13:S17"/>
-    <mergeCell ref="R19:S20"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="M17:Q17"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="M19:Q19"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>